--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AEE95D6E-F046-4AD8-B120-1A0E65666FDD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8093A83C-59EB-435F-8FE6-F9843E04E33D}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{9B92ECB8-73C3-453F-A3B5-7BB3574D4AE5}"/>
   </bookViews>
@@ -429,10 +429,10 @@
         <v>3.2</v>
       </c>
       <c r="C2">
-        <v>2.4662452776660486</v>
+        <v>2.5618839569689595</v>
       </c>
       <c r="D2">
-        <v>5.6662452776660484</v>
+        <v>5.7618839569689602</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -443,10 +443,10 @@
         <v>5.6</v>
       </c>
       <c r="C3">
-        <v>24.662452776660491</v>
+        <v>25.618839569689602</v>
       </c>
       <c r="D3">
-        <v>30.262452776660488</v>
+        <v>31.2188395696896</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -457,10 +457,10 @@
         <v>3.6</v>
       </c>
       <c r="C4">
-        <v>12.331226388330245</v>
+        <v>12.809419784844801</v>
       </c>
       <c r="D4">
-        <v>15.931226388330245</v>
+        <v>16.4094197848448</v>
       </c>
     </row>
   </sheetData>
@@ -469,21 +469,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -706,24 +691,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A85BDA4-8FF7-45BB-AC04-AC0C480990C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE763EAB-E305-4BF3-BB35-494629A36B87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB5D47E-A58E-4282-8FC2-DD4540DECADC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -740,4 +723,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE763EAB-E305-4BF3-BB35-494629A36B87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A85BDA4-8FF7-45BB-AC04-AC0C480990C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8093A83C-59EB-435F-8FE6-F9843E04E33D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0903A8C7-BDFE-4EB8-ADAE-AF5E1E02EBDA}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{9B92ECB8-73C3-453F-A3B5-7BB3574D4AE5}"/>
   </bookViews>
@@ -429,10 +429,10 @@
         <v>3.2</v>
       </c>
       <c r="C2">
-        <v>2.5618839569689595</v>
+        <v>1.4925000000000002</v>
       </c>
       <c r="D2">
-        <v>5.7618839569689602</v>
+        <v>4.6925000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -443,10 +443,10 @@
         <v>5.6</v>
       </c>
       <c r="C3">
-        <v>25.618839569689602</v>
+        <v>14.925000000000001</v>
       </c>
       <c r="D3">
-        <v>31.2188395696896</v>
+        <v>20.524999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -457,10 +457,10 @@
         <v>3.6</v>
       </c>
       <c r="C4">
-        <v>12.809419784844801</v>
+        <v>7.4625000000000004</v>
       </c>
       <c r="D4">
-        <v>16.4094197848448</v>
+        <v>11.0625</v>
       </c>
     </row>
   </sheetData>
@@ -469,6 +469,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -691,7 +697,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -700,13 +706,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A85BDA4-8FF7-45BB-AC04-AC0C480990C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB5D47E-A58E-4282-8FC2-DD4540DECADC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -725,19 +734,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE763EAB-E305-4BF3-BB35-494629A36B87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A85BDA4-8FF7-45BB-AC04-AC0C480990C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0903A8C7-BDFE-4EB8-ADAE-AF5E1E02EBDA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A019CCD5-1FFF-44EA-AA7D-07EE5952AABE}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{9B92ECB8-73C3-453F-A3B5-7BB3574D4AE5}"/>
   </bookViews>
@@ -426,13 +426,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1.4925000000000002</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="D2">
-        <v>4.6925000000000008</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -440,13 +440,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>14.925000000000001</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="D3">
-        <v>20.524999999999999</v>
+        <v>10.399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -454,13 +454,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="C4">
-        <v>7.4625000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="D4">
-        <v>11.0625</v>
+        <v>9.15</v>
       </c>
     </row>
   </sheetData>
@@ -475,6 +475,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -697,15 +706,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A85BDA4-8FF7-45BB-AC04-AC0C480990C3}">
   <ds:schemaRefs>
@@ -716,6 +716,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE763EAB-E305-4BF3-BB35-494629A36B87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB5D47E-A58E-4282-8FC2-DD4540DECADC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -732,12 +740,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE763EAB-E305-4BF3-BB35-494629A36B87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A019CCD5-1FFF-44EA-AA7D-07EE5952AABE}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{7FBD904A-7459-4183-AC34-FDE4E3C5B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7BC7F2E-79B9-47FC-B524-349F81B6579F}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{9B92ECB8-73C3-453F-A3B5-7BB3574D4AE5}"/>
+    <workbookView xWindow="2052" yWindow="1896" windowWidth="17280" windowHeight="9420" xr2:uid="{9B92ECB8-73C3-453F-A3B5-7BB3574D4AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>4.8000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="D2">
-        <v>16.8</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -443,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.3999999999999986</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="D3">
-        <v>10.399999999999999</v>
+        <v>6.2857142857142856</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -457,10 +457,10 @@
         <v>3.75</v>
       </c>
       <c r="C4">
-        <v>5.4</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D4">
-        <v>9.15</v>
+        <v>10.416666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -469,21 +469,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -706,24 +691,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A85BDA4-8FF7-45BB-AC04-AC0C480990C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE763EAB-E305-4BF3-BB35-494629A36B87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB5D47E-A58E-4282-8FC2-DD4540DECADC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -740,4 +723,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A85BDA4-8FF7-45BB-AC04-AC0C480990C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE763EAB-E305-4BF3-BB35-494629A36B87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>